--- a/datasets/rna-seq szblon — kopia.xlsx
+++ b/datasets/rna-seq szblon — kopia.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\magist\new_operations_base\AAold\strepto_app\datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\projekt_mgr\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33CE931-C47D-4ACB-9715-9CC80F009E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845135DC-ED42-4354-AEAE-75D3830BBEC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4155" yWindow="480" windowWidth="14370" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4155" yWindow="15" windowWidth="14370" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rna-seq szablon" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>gene</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>SCO7536</t>
+  </si>
+  <si>
+    <t>width</t>
   </si>
 </sst>
 </file>
@@ -466,23 +469,26 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s">
         <v>7</v>
@@ -501,10 +507,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="1">
@@ -515,10 +518,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="1">
@@ -529,10 +529,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="1">
@@ -543,10 +540,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="1">
@@ -557,10 +551,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="1">
@@ -571,10 +562,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="2">
@@ -585,10 +573,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="1">
@@ -599,10 +584,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="1">
@@ -613,10 +595,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="F10" s="1">
@@ -627,10 +606,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="2">
@@ -641,10 +617,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="F12" s="2">
@@ -655,10 +628,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="A13" t="s">
         <v>19</v>
       </c>
       <c r="F13" s="2">
@@ -669,10 +639,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="F14" s="2">
@@ -683,10 +650,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="A15" t="s">
         <v>21</v>
       </c>
       <c r="F15" s="2">
@@ -697,10 +661,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="A16" t="s">
         <v>22</v>
       </c>
       <c r="F16" s="1">

--- a/datasets/rna-seq szblon — kopia.xlsx
+++ b/datasets/rna-seq szblon — kopia.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\projekt_mgr\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845135DC-ED42-4354-AEAE-75D3830BBEC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F8BA1A-2CD1-4301-B4A2-DFE54E99964E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4155" yWindow="15" windowWidth="14370" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="795" yWindow="225" windowWidth="14370" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rna-seq szablon" sheetId="1" r:id="rId1"/>
-    <sheet name="Arkusz1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -674,18 +673,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C4278B5-AA0A-409B-820C-7915A540F098}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/datasets/rna-seq szblon — kopia.xlsx
+++ b/datasets/rna-seq szblon — kopia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\projekt_mgr\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F8BA1A-2CD1-4301-B4A2-DFE54E99964E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F4881E-EDFC-4AB4-AF8E-14A143D332AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="795" yWindow="225" windowWidth="14370" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14430" yWindow="0" windowWidth="14370" windowHeight="15510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rna-seq szablon" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>gene</t>
   </si>
@@ -58,42 +58,6 @@
   </si>
   <si>
     <t>SCO2166</t>
-  </si>
-  <si>
-    <t>SCO3899</t>
-  </si>
-  <si>
-    <t>SCO3900</t>
-  </si>
-  <si>
-    <t>SCO4902</t>
-  </si>
-  <si>
-    <t>SCO6273</t>
-  </si>
-  <si>
-    <t>SCO6274</t>
-  </si>
-  <si>
-    <t>SCO6275</t>
-  </si>
-  <si>
-    <t>SCO6682</t>
-  </si>
-  <si>
-    <t>SCO6931</t>
-  </si>
-  <si>
-    <t>SCO7013</t>
-  </si>
-  <si>
-    <t>SCO7014</t>
-  </si>
-  <si>
-    <t>SCO7314</t>
-  </si>
-  <si>
-    <t>SCO7536</t>
   </si>
   <si>
     <t>width</t>
@@ -468,7 +432,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,7 +451,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
         <v>7</v>
@@ -539,136 +503,52 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="1">
-        <v>-3.1</v>
-      </c>
-      <c r="G5" s="3">
-        <v>3.5000000000000002E-97</v>
-      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="1">
-        <v>-2.8</v>
-      </c>
-      <c r="G6" s="3">
-        <v>9.2000000000000003E-39</v>
-      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="2">
-        <v>2.4</v>
-      </c>
-      <c r="G7" s="3">
-        <v>9.5999999999999999E-10</v>
-      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="1">
-        <v>-2</v>
-      </c>
-      <c r="G8" s="3">
-        <v>8.9999999999999998E-4</v>
-      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="1">
-        <v>-2.2000000000000002</v>
-      </c>
-      <c r="G9" s="3">
-        <v>6.7999999999999999E-5</v>
-      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="1">
-        <v>-2.2999999999999998</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1.5E-5</v>
-      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="2">
-        <v>2.9</v>
-      </c>
-      <c r="G11" s="3">
-        <v>8.0999999999999998E-12</v>
-      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="2">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G12" s="3">
-        <v>3.7E-7</v>
-      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="2">
-        <v>7.1</v>
-      </c>
-      <c r="G13" s="3">
-        <v>7.9000000000000002E-16</v>
-      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="2">
-        <v>4.2</v>
-      </c>
-      <c r="G14" s="3">
-        <v>1.4999999999999999E-7</v>
-      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="2">
-        <v>2.1</v>
-      </c>
-      <c r="G15" s="3">
-        <v>2.4E-9</v>
-      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="1">
-        <v>-17.2</v>
-      </c>
-      <c r="G16" s="4">
-        <v>6.2E-258</v>
-      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/datasets/rna-seq szblon — kopia.xlsx
+++ b/datasets/rna-seq szblon — kopia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\projekt_mgr\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F4881E-EDFC-4AB4-AF8E-14A143D332AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5708926C-E5C1-4BA8-BE68-19916BA02CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14430" yWindow="0" windowWidth="14370" windowHeight="15510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,17 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>gene</t>
   </si>
   <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>end</t>
-  </si>
-  <si>
     <t>logFC</t>
   </si>
   <si>
@@ -48,9 +42,6 @@
     <t>add.variable</t>
   </si>
   <si>
-    <t>strand</t>
-  </si>
-  <si>
     <t>SCO1550</t>
   </si>
   <si>
@@ -58,9 +49,6 @@
   </si>
   <si>
     <t>SCO2166</t>
-  </si>
-  <si>
-    <t>width</t>
   </si>
 </sst>
 </file>
@@ -429,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,7 +428,7 @@
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -451,102 +439,90 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="C2" s="3">
+        <v>4.4999999999999999E-18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
+        <v>-14.1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2E-14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1">
-        <v>-2.2000000000000002</v>
-      </c>
-      <c r="G2" s="3">
-        <v>4.4999999999999999E-18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1">
-        <v>-14.1</v>
-      </c>
-      <c r="G3" s="3">
-        <v>2E-14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="B4" s="1">
         <v>-10.8</v>
       </c>
-      <c r="G4" s="3">
+      <c r="C4" s="3">
         <v>1.7E-16</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F5" s="1"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F6" s="1"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F7" s="2"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F8" s="1"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F9" s="1"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F10" s="1"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F11" s="2"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F12" s="2"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F13" s="2"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F14" s="2"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F15" s="2"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F16" s="1"/>
       <c r="G16" s="4"/>
     </row>
